--- a/data/input/covanta_data.xlsx
+++ b/data/input/covanta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alexandriava1.sharepoint.com/sites/GeneralServices/EnergyManagement/Shared Documents/Analysis/Covanta WTE/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egeriicw/Personal-Projects/ALXCovantaCHP/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="11_E974040BE80A22493A7CFA40E3EBDF22B3D69001" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88670878-C5CF-4B11-8A45-6EAA814C78BD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E8B61-18FA-5841-90FC-C50491EF3226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="135" windowWidth="9135" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24780" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,12 +315,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -618,23 +612,23 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="1" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -711,99 +705,6 @@
     <cellStyle name="Percent" xfId="69" builtinId="5"/>
   </cellStyles>
   <dxfs count="54">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1938,6 +1839,40 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1977,6 +1912,40 @@
         <top style="thin">
           <color theme="0"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -2419,6 +2388,31 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2627,74 +2621,74 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Fiscal Year" dataDxfId="50"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month" dataDxfId="49"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MonthNum" dataDxfId="48"/>
-    <tableColumn id="52" xr3:uid="{FBC085EF-37B2-4DAD-B4DB-5FFD4C89F407}" name="Date" dataDxfId="0">
+    <tableColumn id="52" xr3:uid="{FBC085EF-37B2-4DAD-B4DB-5FFD4C89F407}" name="Date" dataDxfId="47">
       <calculatedColumnFormula>DATE(Table1[[#This Row],[Calendar Year]],Table1[[#This Row],[MonthNum]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Days" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Days" dataDxfId="46">
       <calculatedColumnFormula>DAY(EOMONTH(DATE(Table1[[#This Row],[Calendar Year]],Table1[[#This Row],[MonthNum]],1),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hours" dataDxfId="46">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Hours" dataDxfId="45">
       <calculatedColumnFormula>Sheet1!$F2*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FYQTR" dataDxfId="45"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Waste Collected (tons)" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Waste Processed (tons)" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Waste Processed (klbs)" dataDxfId="42">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FYQTR" dataDxfId="44"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Waste Collected (tons)" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Waste Processed (tons)" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Waste Processed (klbs)" dataDxfId="41">
       <calculatedColumnFormula>Sheet1!$J2*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Steam (klbs)" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Average Steam Production (klbs/hour)" dataDxfId="40">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Steam (klbs)" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Average Steam Production (klbs/hour)" dataDxfId="39">
       <calculatedColumnFormula>Sheet1!$L2/Sheet1!$G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gross Steam Production Ratio (klbs-steam/klbs-refuse)" dataDxfId="39">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Gross Steam Production Ratio (klbs-steam/klbs-refuse)" dataDxfId="38">
       <calculatedColumnFormula>L2/K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Ash Removal (tons)" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Special Handling (tons)" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ferrous Recovered (tons)" dataDxfId="36"/>
-    <tableColumn id="50" xr3:uid="{993A1991-0395-47F3-B2B3-3D97298DA4DF}" name="Column1" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Ash Removal (tons)" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Special Handling (tons)" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ferrous Recovered (tons)" dataDxfId="35"/>
+    <tableColumn id="50" xr3:uid="{993A1991-0395-47F3-B2B3-3D97298DA4DF}" name="Column1" dataDxfId="34">
       <calculatedColumnFormula>Table1[[#This Row],[Waste Collected (tons)]]-Table1[[#This Row],[Ferrous Recovered (tons)]]-Table1[[#This Row],[Special Handling (tons)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Net Refuse (klbs)" dataDxfId="35">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Net Refuse (klbs)" dataDxfId="33">
       <calculatedColumnFormula>(Sheet1!$J2-SUM(Sheet1!$O2:$Q2))*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Net Steam Production Ratio (klbs-steam/klbs-net-refuse)" dataDxfId="34">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Net Steam Production Ratio (klbs-steam/klbs-net-refuse)" dataDxfId="32">
       <calculatedColumnFormula>Sheet1!$L2/Sheet1!$S2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{73156D12-D53E-40CB-98A5-653A3BC442B6}" name="Daily Waste Collection (tons/day)" dataDxfId="1">
+    <tableColumn id="51" xr3:uid="{73156D12-D53E-40CB-98A5-653A3BC442B6}" name="Daily Waste Collection (tons/day)" dataDxfId="31">
       <calculatedColumnFormula>Table1[[#This Row],[Waste Collected (tons)]]/Table1[[#This Row],[Days]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="HHVcalculated,avg (Btu/lb)" dataDxfId="33"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="HHVcalculated,qtr_avg (Btu/lb)" dataDxfId="32"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="HHVcalculated,annuak_avg (Btu/lb)" dataDxfId="31"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Net Electrical Generation (MWh)" dataDxfId="30"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Gross Electrical Production (MWh)" dataDxfId="29"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Average Steam Temperature (F)" dataDxfId="28"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Purchased Power (MWh)" dataDxfId="27"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Fuel Oil (gal)" dataDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Boiler Make-up Water (gal)" dataDxfId="25"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Boiler Make-up % of Steam" dataDxfId="24"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Cooling Tower Make-up Water (gal)" dataDxfId="23"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Boiler 1 Availability (%)" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Boiler 2 Availability (%)" dataDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Boiler 3 Availability (%)" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Turbine 1 Availability (%)" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Turbine 2 Availability (%)" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Boiler Unscheduled Downtime" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Boiler Scheduled Downtime" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Boiler Standby Downtime" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Turbine Unscheduled Downtime" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Turbine Scheduled Downtime" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Turbine Standby Downtime" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="U1-Steam Flow AVG" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="U1-Steam Flow MAX" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="U1-Steam Flow MIN" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="U2-Steam Flow AVG" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="U2-Steam Flow MAX" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="U2-Steam Flow MIN" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="U3-Steam Flow AVG" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="U3-Steam Flow MAX" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="U3-Steam Flow MIN" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="HHVcalculated,avg (Btu/lb)" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="HHVcalculated,qtr_avg (Btu/lb)" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="HHVcalculated,annuak_avg (Btu/lb)" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Net Electrical Generation (MWh)" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Gross Electrical Production (MWh)" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Average Steam Temperature (F)" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Purchased Power (MWh)" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Fuel Oil (gal)" dataDxfId="23"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Boiler Make-up Water (gal)" dataDxfId="22"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Boiler Make-up % of Steam" dataDxfId="21"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Cooling Tower Make-up Water (gal)" dataDxfId="20"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Boiler 1 Availability (%)" dataDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Boiler 2 Availability (%)" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Boiler 3 Availability (%)" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Turbine 1 Availability (%)" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Turbine 2 Availability (%)" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Boiler Unscheduled Downtime" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Boiler Scheduled Downtime" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Boiler Standby Downtime" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Turbine Unscheduled Downtime" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Turbine Scheduled Downtime" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Turbine Standby Downtime" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="U1-Steam Flow AVG" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="U1-Steam Flow MAX" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="U1-Steam Flow MIN" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="U2-Steam Flow AVG" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="U2-Steam Flow MAX" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="U2-Steam Flow MIN" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="U3-Steam Flow AVG" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="U3-Steam Flow MAX" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="U3-Steam Flow MIN" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3032,62 +3026,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="1" customWidth="1"/>
-    <col min="17" max="18" width="13.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="13.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="17.1640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="17.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" style="1" customWidth="1"/>
     <col min="24" max="24" width="22" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.83203125" style="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
     <col min="30" max="30" width="14" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="17.83203125" style="1" customWidth="1"/>
     <col min="33" max="33" width="12" style="47" customWidth="1"/>
     <col min="34" max="34" width="13" style="47" customWidth="1"/>
     <col min="35" max="35" width="15.5" style="47" customWidth="1"/>
-    <col min="36" max="36" width="13.75" style="47" customWidth="1"/>
-    <col min="37" max="37" width="14.625" style="47" customWidth="1"/>
+    <col min="36" max="36" width="13.6640625" style="47" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" style="47" customWidth="1"/>
     <col min="38" max="38" width="17.5" style="49" customWidth="1"/>
-    <col min="39" max="39" width="15.75" style="49" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" style="49" customWidth="1"/>
     <col min="40" max="40" width="12" style="49" customWidth="1"/>
-    <col min="41" max="41" width="15.625" style="49" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" style="49" customWidth="1"/>
     <col min="42" max="42" width="32" style="49" customWidth="1"/>
     <col min="43" max="43" width="29.5" style="49" customWidth="1"/>
-    <col min="44" max="44" width="22.125" style="49" customWidth="1"/>
-    <col min="45" max="45" width="22.375" style="49" customWidth="1"/>
-    <col min="46" max="46" width="21.375" style="49" customWidth="1"/>
-    <col min="47" max="47" width="22.125" style="49" customWidth="1"/>
-    <col min="48" max="48" width="22.375" style="49" customWidth="1"/>
-    <col min="49" max="49" width="21.375" style="49" customWidth="1"/>
-    <col min="50" max="50" width="22.125" style="49" customWidth="1"/>
-    <col min="51" max="51" width="22.375" style="49" customWidth="1"/>
-    <col min="52" max="52" width="21.375" style="49" customWidth="1"/>
+    <col min="44" max="44" width="22.1640625" style="49" customWidth="1"/>
+    <col min="45" max="45" width="22.33203125" style="49" customWidth="1"/>
+    <col min="46" max="46" width="21.33203125" style="49" customWidth="1"/>
+    <col min="47" max="47" width="22.1640625" style="49" customWidth="1"/>
+    <col min="48" max="48" width="22.33203125" style="49" customWidth="1"/>
+    <col min="49" max="49" width="21.33203125" style="49" customWidth="1"/>
+    <col min="50" max="50" width="22.1640625" style="49" customWidth="1"/>
+    <col min="51" max="51" width="22.33203125" style="49" customWidth="1"/>
+    <col min="52" max="52" width="21.33203125" style="49" customWidth="1"/>
     <col min="53" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3346,7 +3339,7 @@
       <c r="AY2" s="11"/>
       <c r="AZ2" s="11"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2009</v>
       </c>
@@ -3443,7 +3436,7 @@
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>2009</v>
       </c>
@@ -3540,7 +3533,7 @@
       <c r="AY4" s="26"/>
       <c r="AZ4" s="26"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>2009</v>
       </c>
@@ -3637,7 +3630,7 @@
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>2009</v>
       </c>
@@ -3734,7 +3727,7 @@
       <c r="AY6" s="26"/>
       <c r="AZ6" s="26"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>2009</v>
       </c>
@@ -3831,7 +3824,7 @@
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>2009</v>
       </c>
@@ -3928,7 +3921,7 @@
       <c r="AY8" s="26"/>
       <c r="AZ8" s="26"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>2009</v>
       </c>
@@ -4025,7 +4018,7 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>2009</v>
       </c>
@@ -4122,7 +4115,7 @@
       <c r="AY10" s="26"/>
       <c r="AZ10" s="26"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>2009</v>
       </c>
@@ -4219,7 +4212,7 @@
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>2009</v>
       </c>
@@ -4316,7 +4309,7 @@
       <c r="AY12" s="26"/>
       <c r="AZ12" s="26"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>2009</v>
       </c>
@@ -4413,7 +4406,7 @@
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>2010</v>
       </c>
@@ -4510,7 +4503,7 @@
       <c r="AY14" s="26"/>
       <c r="AZ14" s="26"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>2010</v>
       </c>
@@ -4607,7 +4600,7 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>2010</v>
       </c>
@@ -4704,7 +4697,7 @@
       <c r="AY16" s="26"/>
       <c r="AZ16" s="26"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>2010</v>
       </c>
@@ -4801,7 +4794,7 @@
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>2010</v>
       </c>
@@ -4898,7 +4891,7 @@
       <c r="AY18" s="26"/>
       <c r="AZ18" s="26"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>2010</v>
       </c>
@@ -4995,7 +4988,7 @@
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>2010</v>
       </c>
@@ -5094,7 +5087,7 @@
       <c r="AY20" s="26"/>
       <c r="AZ20" s="26"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>2010</v>
       </c>
@@ -5193,7 +5186,7 @@
       <c r="AY21" s="2"/>
       <c r="AZ21" s="2"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>2010</v>
       </c>
@@ -5292,7 +5285,7 @@
       <c r="AY22" s="26"/>
       <c r="AZ22" s="26"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>2010</v>
       </c>
@@ -5391,7 +5384,7 @@
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>2010</v>
       </c>
@@ -5490,7 +5483,7 @@
       <c r="AY24" s="26"/>
       <c r="AZ24" s="26"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>2010</v>
       </c>
@@ -5589,7 +5582,7 @@
       <c r="AY25" s="2"/>
       <c r="AZ25" s="2"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>2011</v>
       </c>
@@ -5688,7 +5681,7 @@
       <c r="AY26" s="26"/>
       <c r="AZ26" s="26"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>2011</v>
       </c>
@@ -5787,7 +5780,7 @@
       <c r="AY27" s="2"/>
       <c r="AZ27" s="2"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>2011</v>
       </c>
@@ -5886,7 +5879,7 @@
       <c r="AY28" s="26"/>
       <c r="AZ28" s="26"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>2011</v>
       </c>
@@ -5985,7 +5978,7 @@
       <c r="AY29" s="2"/>
       <c r="AZ29" s="2"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>2011</v>
       </c>
@@ -6084,7 +6077,7 @@
       <c r="AY30" s="26"/>
       <c r="AZ30" s="26"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>2011</v>
       </c>
@@ -6183,7 +6176,7 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>2011</v>
       </c>
@@ -6288,7 +6281,7 @@
       <c r="AY32" s="26"/>
       <c r="AZ32" s="26"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>2011</v>
       </c>
@@ -6393,7 +6386,7 @@
       <c r="AY33" s="2"/>
       <c r="AZ33" s="2"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>2011</v>
       </c>
@@ -6498,7 +6491,7 @@
       <c r="AY34" s="26"/>
       <c r="AZ34" s="26"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>2011</v>
       </c>
@@ -6603,7 +6596,7 @@
       <c r="AY35" s="2"/>
       <c r="AZ35" s="2"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>2011</v>
       </c>
@@ -6708,7 +6701,7 @@
       <c r="AY36" s="26"/>
       <c r="AZ36" s="26"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>2011</v>
       </c>
@@ -6813,7 +6806,7 @@
       <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>2012</v>
       </c>
@@ -6918,7 +6911,7 @@
       <c r="AY38" s="26"/>
       <c r="AZ38" s="26"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>2012</v>
       </c>
@@ -7023,7 +7016,7 @@
       <c r="AY39" s="2"/>
       <c r="AZ39" s="2"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>2012</v>
       </c>
@@ -7128,7 +7121,7 @@
       <c r="AY40" s="26"/>
       <c r="AZ40" s="26"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>2012</v>
       </c>
@@ -7233,7 +7226,7 @@
       <c r="AY41" s="2"/>
       <c r="AZ41" s="2"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>2012</v>
       </c>
@@ -7338,7 +7331,7 @@
       <c r="AY42" s="26"/>
       <c r="AZ42" s="26"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>2012</v>
       </c>
@@ -7443,7 +7436,7 @@
       <c r="AY43" s="2"/>
       <c r="AZ43" s="2"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>2012</v>
       </c>
@@ -7550,7 +7543,7 @@
       <c r="AY44" s="26"/>
       <c r="AZ44" s="26"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>2012</v>
       </c>
@@ -7657,7 +7650,7 @@
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>2012</v>
       </c>
@@ -7764,7 +7757,7 @@
       <c r="AY46" s="26"/>
       <c r="AZ46" s="26"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>2012</v>
       </c>
@@ -7873,7 +7866,7 @@
       <c r="AY47" s="2"/>
       <c r="AZ47" s="2"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>2012</v>
       </c>
@@ -7982,7 +7975,7 @@
       <c r="AY48" s="26"/>
       <c r="AZ48" s="26"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>2012</v>
       </c>
@@ -8091,7 +8084,7 @@
       <c r="AY49" s="2"/>
       <c r="AZ49" s="2"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>2013</v>
       </c>
@@ -8198,7 +8191,7 @@
       <c r="AY50" s="26"/>
       <c r="AZ50" s="26"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>2013</v>
       </c>
@@ -8305,7 +8298,7 @@
       <c r="AY51" s="2"/>
       <c r="AZ51" s="2"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>2013</v>
       </c>
@@ -8412,7 +8405,7 @@
       <c r="AY52" s="26"/>
       <c r="AZ52" s="26"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>2013</v>
       </c>
@@ -8523,7 +8516,7 @@
       <c r="AY53" s="2"/>
       <c r="AZ53" s="2"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>2013</v>
       </c>
@@ -8634,7 +8627,7 @@
       <c r="AY54" s="26"/>
       <c r="AZ54" s="26"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>2013</v>
       </c>
@@ -8745,7 +8738,7 @@
       <c r="AY55" s="2"/>
       <c r="AZ55" s="2"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>2013</v>
       </c>
@@ -8854,7 +8847,7 @@
       <c r="AY56" s="26"/>
       <c r="AZ56" s="26"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>2013</v>
       </c>
@@ -8963,7 +8956,7 @@
       <c r="AY57" s="2"/>
       <c r="AZ57" s="2"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>2013</v>
       </c>
@@ -9072,7 +9065,7 @@
       <c r="AY58" s="26"/>
       <c r="AZ58" s="26"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>2013</v>
       </c>
@@ -9193,7 +9186,7 @@
       <c r="AY59" s="2"/>
       <c r="AZ59" s="2"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>2013</v>
       </c>
@@ -9314,7 +9307,7 @@
       <c r="AY60" s="26"/>
       <c r="AZ60" s="26"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>2013</v>
       </c>
@@ -9435,7 +9428,7 @@
       <c r="AY61" s="2"/>
       <c r="AZ61" s="2"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>2014</v>
       </c>
@@ -9557,7 +9550,7 @@
       <c r="AY62" s="26"/>
       <c r="AZ62" s="26"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>2014</v>
       </c>
@@ -9679,7 +9672,7 @@
       <c r="AY63" s="2"/>
       <c r="AZ63" s="2"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>2014</v>
       </c>
@@ -9801,7 +9794,7 @@
       <c r="AY64" s="26"/>
       <c r="AZ64" s="26"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>2014</v>
       </c>
@@ -9923,7 +9916,7 @@
       <c r="AY65" s="2"/>
       <c r="AZ65" s="2"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>2014</v>
       </c>
@@ -10045,7 +10038,7 @@
       <c r="AY66" s="26"/>
       <c r="AZ66" s="26"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>2014</v>
       </c>
@@ -10167,7 +10160,7 @@
       <c r="AY67" s="2"/>
       <c r="AZ67" s="2"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>2014</v>
       </c>
@@ -10299,7 +10292,7 @@
       <c r="AY68" s="26"/>
       <c r="AZ68" s="26"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>2014</v>
       </c>
@@ -10431,7 +10424,7 @@
       <c r="AY69" s="2"/>
       <c r="AZ69" s="2"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>2014</v>
       </c>
@@ -10563,7 +10556,7 @@
       <c r="AY70" s="26"/>
       <c r="AZ70" s="26"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>2014</v>
       </c>
@@ -10729,7 +10722,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>2014</v>
       </c>
@@ -10895,7 +10888,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>2014</v>
       </c>
@@ -11061,7 +11054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>2015</v>
       </c>
@@ -11185,7 +11178,7 @@
       <c r="AY74" s="26"/>
       <c r="AZ74" s="26"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>2015</v>
       </c>
@@ -11309,7 +11302,7 @@
       <c r="AY75" s="2"/>
       <c r="AZ75" s="2"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>2015</v>
       </c>
@@ -11433,7 +11426,7 @@
       <c r="AY76" s="26"/>
       <c r="AZ76" s="26"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>2015</v>
       </c>
@@ -11557,7 +11550,7 @@
       <c r="AY77" s="2"/>
       <c r="AZ77" s="2"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>2015</v>
       </c>
@@ -11681,7 +11674,7 @@
       <c r="AY78" s="26"/>
       <c r="AZ78" s="26"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>2015</v>
       </c>
@@ -11805,7 +11798,7 @@
       <c r="AY79" s="2"/>
       <c r="AZ79" s="2"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>2015</v>
       </c>
@@ -11967,7 +11960,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>2015</v>
       </c>
@@ -12129,7 +12122,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>2015</v>
       </c>
@@ -12291,7 +12284,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>2015</v>
       </c>
@@ -12401,7 +12394,7 @@
       <c r="AY83" s="2"/>
       <c r="AZ83" s="2"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>2015</v>
       </c>
@@ -12511,7 +12504,7 @@
       <c r="AY84" s="26"/>
       <c r="AZ84" s="26"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>2015</v>
       </c>
@@ -12621,7 +12614,7 @@
       <c r="AY85" s="2"/>
       <c r="AZ85" s="2"/>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>2016</v>
       </c>
@@ -12733,7 +12726,7 @@
       <c r="AY86" s="26"/>
       <c r="AZ86" s="26"/>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>2016</v>
       </c>
@@ -12845,7 +12838,7 @@
       <c r="AY87" s="2"/>
       <c r="AZ87" s="2"/>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>2016</v>
       </c>
@@ -12957,7 +12950,7 @@
       <c r="AY88" s="26"/>
       <c r="AZ88" s="26"/>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>2016</v>
       </c>
@@ -13097,7 +13090,7 @@
       <c r="AY89" s="2"/>
       <c r="AZ89" s="2"/>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>2016</v>
       </c>
@@ -13237,7 +13230,7 @@
       <c r="AY90" s="26"/>
       <c r="AZ90" s="26"/>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>2016</v>
       </c>
@@ -13377,7 +13370,7 @@
       <c r="AY91" s="2"/>
       <c r="AZ91" s="2"/>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>2016</v>
       </c>
@@ -13519,7 +13512,7 @@
       <c r="AY92" s="26"/>
       <c r="AZ92" s="26"/>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>2016</v>
       </c>
@@ -13661,7 +13654,7 @@
       <c r="AY93" s="2"/>
       <c r="AZ93" s="2"/>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>2016</v>
       </c>
@@ -13803,7 +13796,7 @@
       <c r="AY94" s="26"/>
       <c r="AZ94" s="26"/>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>2016</v>
       </c>
@@ -13947,7 +13940,7 @@
       <c r="AY95" s="2"/>
       <c r="AZ95" s="2"/>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>2016</v>
       </c>
@@ -14091,7 +14084,7 @@
       <c r="AY96" s="26"/>
       <c r="AZ96" s="26"/>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>2016</v>
       </c>
@@ -14235,7 +14228,7 @@
       <c r="AY97" s="2"/>
       <c r="AZ97" s="2"/>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>2017</v>
       </c>
@@ -14355,7 +14348,7 @@
       <c r="AY98" s="26"/>
       <c r="AZ98" s="26"/>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>2017</v>
       </c>
@@ -14475,7 +14468,7 @@
       <c r="AY99" s="2"/>
       <c r="AZ99" s="2"/>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>2017</v>
       </c>
@@ -14595,7 +14588,7 @@
       <c r="AY100" s="26"/>
       <c r="AZ100" s="26"/>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>2017</v>
       </c>
@@ -14717,7 +14710,7 @@
       <c r="AY101" s="2"/>
       <c r="AZ101" s="2"/>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>2017</v>
       </c>
@@ -14839,7 +14832,7 @@
       <c r="AY102" s="26"/>
       <c r="AZ102" s="26"/>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>2017</v>
       </c>
@@ -14961,7 +14954,7 @@
       <c r="AY103" s="2"/>
       <c r="AZ103" s="2"/>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>2017</v>
       </c>
@@ -15083,7 +15076,7 @@
       <c r="AY104" s="2"/>
       <c r="AZ104" s="2"/>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>2017</v>
       </c>
@@ -15205,7 +15198,7 @@
       <c r="AY105" s="2"/>
       <c r="AZ105" s="2"/>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>2017</v>
       </c>
@@ -15327,7 +15320,7 @@
       <c r="AY106" s="40"/>
       <c r="AZ106" s="40"/>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>2017</v>
       </c>
@@ -15449,7 +15442,7 @@
       <c r="AY107" s="40"/>
       <c r="AZ107" s="40"/>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>2017</v>
       </c>
@@ -15571,7 +15564,7 @@
       <c r="AY108" s="40"/>
       <c r="AZ108" s="40"/>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>2017</v>
       </c>
@@ -15693,7 +15686,7 @@
       <c r="AY109" s="40"/>
       <c r="AZ109" s="40"/>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>2018</v>
       </c>
@@ -15815,7 +15808,7 @@
       <c r="AY110" s="2"/>
       <c r="AZ110" s="2"/>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="34">
         <v>2018</v>
       </c>
@@ -15937,7 +15930,7 @@
       <c r="AY111" s="40"/>
       <c r="AZ111" s="40"/>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="34">
         <v>2018</v>
       </c>
@@ -16059,7 +16052,7 @@
       <c r="AY112" s="40"/>
       <c r="AZ112" s="40"/>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="34">
         <v>2018</v>
       </c>
@@ -16181,7 +16174,7 @@
       <c r="AY113" s="40"/>
       <c r="AZ113" s="40"/>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="34">
         <v>2018</v>
       </c>
@@ -16303,7 +16296,7 @@
       <c r="AY114" s="40"/>
       <c r="AZ114" s="40"/>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="34">
         <v>2018</v>
       </c>
@@ -16425,7 +16418,7 @@
       <c r="AY115" s="40"/>
       <c r="AZ115" s="40"/>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>2018</v>
       </c>
@@ -16547,7 +16540,7 @@
       <c r="AY116" s="2"/>
       <c r="AZ116" s="2"/>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="34">
         <v>2018</v>
       </c>
@@ -16669,7 +16662,7 @@
       <c r="AY117" s="40"/>
       <c r="AZ117" s="40"/>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="34">
         <v>2018</v>
       </c>
@@ -16791,7 +16784,7 @@
       <c r="AY118" s="40"/>
       <c r="AZ118" s="40"/>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="34">
         <v>2018</v>
       </c>
@@ -16913,7 +16906,7 @@
       <c r="AY119" s="40"/>
       <c r="AZ119" s="40"/>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="34">
         <v>2018</v>
       </c>
@@ -17035,7 +17028,7 @@
       <c r="AY120" s="40"/>
       <c r="AZ120" s="40"/>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="34">
         <v>2018</v>
       </c>
@@ -17157,7 +17150,7 @@
       <c r="AY121" s="40"/>
       <c r="AZ121" s="40"/>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="34">
         <v>2019</v>
       </c>
@@ -17279,7 +17272,7 @@
       <c r="AY122" s="40"/>
       <c r="AZ122" s="40"/>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="34">
         <v>2019</v>
       </c>
@@ -17401,7 +17394,7 @@
       <c r="AY123" s="40"/>
       <c r="AZ123" s="40"/>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="34">
         <v>2019</v>
       </c>
@@ -17523,7 +17516,7 @@
       <c r="AY124" s="40"/>
       <c r="AZ124" s="40"/>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="34">
         <v>2019</v>
       </c>
@@ -17645,7 +17638,7 @@
       <c r="AY125" s="40"/>
       <c r="AZ125" s="40"/>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="34">
         <v>2019</v>
       </c>
@@ -17767,7 +17760,7 @@
       <c r="AY126" s="40"/>
       <c r="AZ126" s="40"/>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="34">
         <v>2019</v>
       </c>
@@ -17889,7 +17882,7 @@
       <c r="AY127" s="40"/>
       <c r="AZ127" s="40"/>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="34">
         <v>2019</v>
       </c>
@@ -17985,7 +17978,7 @@
       <c r="AY128" s="40"/>
       <c r="AZ128" s="40"/>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="34">
         <v>2019</v>
       </c>
@@ -18081,7 +18074,7 @@
       <c r="AY129" s="40"/>
       <c r="AZ129" s="40"/>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="34">
         <v>2019</v>
       </c>
@@ -18177,7 +18170,7 @@
       <c r="AY130" s="40"/>
       <c r="AZ130" s="40"/>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="34">
         <v>2019</v>
       </c>
@@ -18273,7 +18266,7 @@
       <c r="AY131" s="40"/>
       <c r="AZ131" s="40"/>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="34">
         <v>2019</v>
       </c>
@@ -18369,7 +18362,7 @@
       <c r="AY132" s="40"/>
       <c r="AZ132" s="40"/>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="34">
         <v>2019</v>
       </c>
@@ -18465,7 +18458,7 @@
       <c r="AY133" s="40"/>
       <c r="AZ133" s="40"/>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="34">
         <v>2020</v>
       </c>
@@ -18561,7 +18554,7 @@
       <c r="AY134" s="40"/>
       <c r="AZ134" s="40"/>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="34">
         <v>2020</v>
       </c>
@@ -18657,7 +18650,7 @@
       <c r="AY135" s="40"/>
       <c r="AZ135" s="40"/>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="34">
         <v>2020</v>
       </c>
@@ -18753,7 +18746,7 @@
       <c r="AY136" s="40"/>
       <c r="AZ136" s="40"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="34">
         <v>2020</v>
       </c>
@@ -18849,7 +18842,7 @@
       <c r="AY137" s="40"/>
       <c r="AZ137" s="40"/>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="34">
         <v>2020</v>
       </c>
@@ -18945,7 +18938,7 @@
       <c r="AY138" s="40"/>
       <c r="AZ138" s="40"/>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="34">
         <v>2020</v>
       </c>
@@ -19041,7 +19034,7 @@
       <c r="AY139" s="40"/>
       <c r="AZ139" s="40"/>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="34">
         <v>2020</v>
       </c>
@@ -19137,7 +19130,7 @@
       <c r="AY140" s="40"/>
       <c r="AZ140" s="40"/>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="34">
         <v>2020</v>
       </c>
@@ -19233,7 +19226,7 @@
       <c r="AY141" s="40"/>
       <c r="AZ141" s="40"/>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="34">
         <v>2020</v>
       </c>
@@ -19329,7 +19322,7 @@
       <c r="AY142" s="40"/>
       <c r="AZ142" s="40"/>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="34">
         <v>2020</v>
       </c>
@@ -19425,7 +19418,7 @@
       <c r="AY143" s="40"/>
       <c r="AZ143" s="40"/>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="34">
         <v>2020</v>
       </c>
@@ -19521,7 +19514,7 @@
       <c r="AY144" s="40"/>
       <c r="AZ144" s="40"/>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="34">
         <v>2020</v>
       </c>
@@ -19617,7 +19610,7 @@
       <c r="AY145" s="40"/>
       <c r="AZ145" s="40"/>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="34">
         <v>2021</v>
       </c>
@@ -19713,7 +19706,7 @@
       <c r="AY146" s="40"/>
       <c r="AZ146" s="40"/>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="34">
         <v>2021</v>
       </c>
@@ -19809,7 +19802,7 @@
       <c r="AY147" s="40"/>
       <c r="AZ147" s="40"/>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="34">
         <v>2021</v>
       </c>
@@ -19905,7 +19898,7 @@
       <c r="AY148" s="40"/>
       <c r="AZ148" s="40"/>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="34">
         <v>2021</v>
       </c>
@@ -19999,7 +19992,7 @@
       <c r="AY149" s="40"/>
       <c r="AZ149" s="40"/>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="34">
         <v>2021</v>
       </c>
@@ -20093,7 +20086,7 @@
       <c r="AY150" s="40"/>
       <c r="AZ150" s="40"/>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="34">
         <v>2021</v>
       </c>
@@ -20187,7 +20180,7 @@
       <c r="AY151" s="40"/>
       <c r="AZ151" s="40"/>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="54">
         <v>2021</v>
       </c>
@@ -20281,7 +20274,7 @@
       <c r="AY152" s="67"/>
       <c r="AZ152" s="67"/>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="55">
         <v>2021</v>
       </c>
@@ -20375,7 +20368,7 @@
       <c r="AY153" s="68"/>
       <c r="AZ153" s="68"/>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="55">
         <v>2021</v>
       </c>
@@ -20469,7 +20462,7 @@
       <c r="AY154" s="68"/>
       <c r="AZ154" s="68"/>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="55">
         <v>2021</v>
       </c>
@@ -20563,7 +20556,7 @@
       <c r="AY155" s="68"/>
       <c r="AZ155" s="68"/>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="55">
         <v>2021</v>
       </c>
@@ -20657,7 +20650,7 @@
       <c r="AY156" s="68"/>
       <c r="AZ156" s="68"/>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="55">
         <v>2021</v>
       </c>
@@ -20751,7 +20744,7 @@
       <c r="AY157" s="68"/>
       <c r="AZ157" s="68"/>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:52" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="54">
         <v>2022</v>
       </c>
@@ -22460,6 +22453,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010009905A07AD6C7A4CB49A7CDCCAAB0CA8" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54f7f314d8447ab5a81c0075ceaed909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75972fe6-f1ac-46c6-8756-057ed8cbebfe" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="1b8a4403-f126-4af7-b640-1c43d103beb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68c463cb3c633ab59a190de980792145" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="75972fe6-f1ac-46c6-8756-057ed8cbebfe"/>
@@ -22715,15 +22717,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -22734,6 +22727,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE16B1B-1E70-4F00-9BE9-FAFA55E599D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE032F8-7DF6-4B35-A82E-87858DCE11C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22753,14 +22754,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE16B1B-1E70-4F00-9BE9-FAFA55E599D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A12682-6EE1-41AC-A1F3-25C822D75372}">
   <ds:schemaRefs>
